--- a/analysis_draft2017b/csv/tS03.xlsx
+++ b/analysis_draft2017b/csv/tS03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Black carbon aerosol</t>
   </si>
@@ -58,49 +58,52 @@
     <t>Lifetime, days</t>
   </si>
   <si>
-    <t>+2.33 ± 0.00</t>
-  </si>
-  <si>
-    <t>-2.33 ± 0.00</t>
+    <t>+3.08 ± 0.00</t>
+  </si>
+  <si>
+    <t>-3.09 ± 0.00</t>
+  </si>
+  <si>
+    <t>-0.08 ± 0.00</t>
+  </si>
+  <si>
+    <t>-0.00 ± 0.00</t>
+  </si>
+  <si>
+    <t>-2.81 ± 0.00</t>
+  </si>
+  <si>
+    <t>-0.19 ± 0.00</t>
+  </si>
+  <si>
+    <t>+0.05 ± 0.00</t>
+  </si>
+  <si>
+    <t>+5.86 ± 0.01</t>
+  </si>
+  <si>
+    <t>-0.16 ± 0.00</t>
+  </si>
+  <si>
+    <t>-2.74 ± 0.00</t>
+  </si>
+  <si>
+    <t>-0.18 ± 0.00</t>
+  </si>
+  <si>
+    <t>+5.63 ± 0.01</t>
+  </si>
+  <si>
+    <t>+0.16 ± 0.00</t>
   </si>
   <si>
     <t>-0.07 ± 0.00</t>
   </si>
   <si>
-    <t>-0.00 ± 0.00</t>
-  </si>
-  <si>
-    <t>-2.11 ± 0.00</t>
-  </si>
-  <si>
-    <t>-0.14 ± 0.00</t>
-  </si>
-  <si>
-    <t>+0.04 ± 0.00</t>
-  </si>
-  <si>
-    <t>+5.67 ± 0.01</t>
-  </si>
-  <si>
     <t>+0.00 ± 0.00</t>
   </si>
   <si>
-    <t>-2.05 ± 0.00</t>
-  </si>
-  <si>
-    <t>+0.03 ± 0.00</t>
-  </si>
-  <si>
-    <t>+5.42 ± 0.01</t>
-  </si>
-  <si>
-    <t>+0.14 ± 0.00</t>
-  </si>
-  <si>
-    <t>-0.06 ± 0.00</t>
-  </si>
-  <si>
-    <t>+4.25 ± 0.03</t>
+    <t>+4.42 ± 0.04</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -527,7 +530,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -552,7 +555,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -580,7 +583,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -594,10 +597,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -611,7 +614,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
